--- a/Consumpton_Year.xlsx
+++ b/Consumpton_Year.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Monthly Consumption (Plant 5340310):</t>
+    <t>Monthly Consumption (Plant 9209949):</t>
   </si>
   <si>
     <t>Months</t>

--- a/Consumpton_Year.xlsx
+++ b/Consumpton_Year.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>557.168</v>
+        <v>609.461</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>524.53</v>
+        <v>449.698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>567.1799999999999</v>
+        <v>477.093</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>523.523</v>
+        <v>501.745</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>581.352</v>
+        <v>514.588</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>380.869</v>
+        <v>500.588</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>462.18</v>
+        <v>538.468</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>569.7</v>
+        <v>513.809</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>568.086</v>
+        <v>486.405</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>662.694</v>
+        <v>560.053</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>647.918</v>
+        <v>592.223</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>565.181</v>
+        <v>625.15</v>
       </c>
     </row>
   </sheetData>

--- a/Consumpton_Year.xlsx
+++ b/Consumpton_Year.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Monthly Consumption (Plant 9209949):</t>
+    <t>Monthly Consumption (Plant 5340310):</t>
   </si>
   <si>
     <t>Months</t>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>609.461</v>
+        <v>557.168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>449.698</v>
+        <v>524.53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>477.093</v>
+        <v>567.1799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>501.745</v>
+        <v>523.523</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>514.588</v>
+        <v>581.352</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>500.588</v>
+        <v>380.869</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>538.468</v>
+        <v>462.18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>513.809</v>
+        <v>569.7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>486.405</v>
+        <v>568.086</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>560.053</v>
+        <v>662.694</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>592.223</v>
+        <v>647.918</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>625.15</v>
+        <v>565.181</v>
       </c>
     </row>
   </sheetData>
